--- a/Resources/Steps.xlsx
+++ b/Resources/Steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekeymon\Documents\data-analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEB801B-3C60-4A23-BF8B-3EC2083EB0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A72591-831A-4796-AC39-0BC990BAA01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{547509CD-F3D7-4A96-B100-57F3C154F68B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Import libraries</t>
   </si>
@@ -123,6 +123,33 @@
   </si>
   <si>
     <t>ALL WABCUST REPORTS</t>
+  </si>
+  <si>
+    <t>Import files</t>
+  </si>
+  <si>
+    <t>Clean up files</t>
+  </si>
+  <si>
+    <t>Save as</t>
+  </si>
+  <si>
+    <t>Merge Jax FC  + Lex FC</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Merge Jax SO + Lex SO</t>
+  </si>
+  <si>
+    <t>FC + SO</t>
+  </si>
+  <si>
+    <t>Merge FC + SO</t>
   </si>
 </sst>
 </file>
@@ -488,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DB2C8D-604D-4B90-B5E5-9373F2219062}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,80 +523,122 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="57.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -577,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -585,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -593,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -601,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -609,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -617,7 +686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -625,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -633,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -641,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -649,7 +718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -707,5 +776,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Steps.xlsx
+++ b/Resources/Steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekeymon\Documents\data-analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A72591-831A-4796-AC39-0BC990BAA01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC439FB-3506-4B79-887A-E9860F30CC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{547509CD-F3D7-4A96-B100-57F3C154F68B}"/>
   </bookViews>

--- a/Resources/Steps.xlsx
+++ b/Resources/Steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekeymon\Documents\data-analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC439FB-3506-4B79-887A-E9860F30CC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB15FE-40DE-48CE-9982-7D0C10E9D973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{547509CD-F3D7-4A96-B100-57F3C154F68B}"/>
   </bookViews>

--- a/Resources/Steps.xlsx
+++ b/Resources/Steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekeymon\Documents\data-analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB15FE-40DE-48CE-9982-7D0C10E9D973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35DAD4B-DAD0-482C-AF43-174787B89081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{547509CD-F3D7-4A96-B100-57F3C154F68B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Import libraries</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Add column Org</t>
   </si>
   <si>
-    <t>Delete Comment column</t>
-  </si>
-  <si>
     <t>Check total count against resource file to ensure data is correct</t>
   </si>
   <si>
@@ -150,6 +147,12 @@
   </si>
   <si>
     <t>Merge FC + SO</t>
+  </si>
+  <si>
+    <t>New data frame with deleted Comment column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort by Date, then Item </t>
   </si>
 </sst>
 </file>
@@ -515,9 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DB2C8D-604D-4B90-B5E5-9373F2219062}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -537,22 +542,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -563,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -586,16 +591,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -606,16 +611,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -626,16 +631,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -715,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -723,55 +728,71 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Steps.xlsx
+++ b/Resources/Steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekeymon\Documents\data-analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35DAD4B-DAD0-482C-AF43-174787B89081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BF022E-A1AC-472E-9BDE-598D2BF52D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{547509CD-F3D7-4A96-B100-57F3C154F68B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Import libraries</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sort by Date, then Item </t>
+  </si>
+  <si>
+    <t>Repeat for LEX FC file</t>
+  </si>
+  <si>
+    <t>Extract Data</t>
+  </si>
+  <si>
+    <t>Transform Data</t>
+  </si>
+  <si>
+    <t>Load Data</t>
   </si>
 </sst>
 </file>
@@ -518,11 +530,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DB2C8D-604D-4B90-B5E5-9373F2219062}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -561,11 +571,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -585,10 +593,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -605,10 +613,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -625,10 +633,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -644,155 +652,181 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Steps.xlsx
+++ b/Resources/Steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekeymon\Documents\data-analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BF022E-A1AC-472E-9BDE-598D2BF52D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E44497-C349-4394-971D-1DEC0E90CFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{547509CD-F3D7-4A96-B100-57F3C154F68B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Import libraries</t>
   </si>
@@ -77,12 +77,6 @@
     <t>Add extended price column and populate with Price * Qty</t>
   </si>
   <si>
-    <t>Add column TYPE</t>
-  </si>
-  <si>
-    <t>Add column Org</t>
-  </si>
-  <si>
     <t>Check total count against resource file to ensure data is correct</t>
   </si>
   <si>
@@ -164,7 +158,19 @@
     <t>Transform Data</t>
   </si>
   <si>
-    <t>Load Data</t>
+    <t>Add column TYPE = FC</t>
+  </si>
+  <si>
+    <t>Add column Org = JAX or LEX</t>
+  </si>
+  <si>
+    <t>Save Data</t>
+  </si>
+  <si>
+    <t>JAX-LEX FC DATA</t>
+  </si>
+  <si>
+    <t>JAX-LEX SO DATA</t>
   </si>
 </sst>
 </file>
@@ -188,12 +194,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,12 +220,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -530,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DB2C8D-604D-4B90-B5E5-9373F2219062}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,204 +567,202 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,76 +770,86 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Steps.xlsx
+++ b/Resources/Steps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekeymon\Documents\data-analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E44497-C349-4394-971D-1DEC0E90CFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552EEDBA-CFF9-4953-A277-ADEEFF154018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{547509CD-F3D7-4A96-B100-57F3C154F68B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{547509CD-F3D7-4A96-B100-57F3C154F68B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>42</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>14</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>37</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
